--- a/core/static/core/spreadsheet_template.xlsx
+++ b/core/static/core/spreadsheet_template.xlsx
@@ -57,11 +57,16 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -223,7 +228,9 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -274,17 +281,17 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -308,55 +315,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="7" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -532,9 +551,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -614,7 +633,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -633,19 +652,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -901,9 +920,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1191,7 +1210,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1210,19 +1229,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1476,7 +1495,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1489,8 +1508,7 @@
     <col min="5" max="5" width="20.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.17188" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9.17188" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
@@ -1502,8 +1520,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6"/>
@@ -1512,8 +1529,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="11">
@@ -1525,11 +1541,8 @@
         <v>2</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14">
-        <v>0.53</v>
-      </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="10"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="16"/>
@@ -1539,11 +1552,8 @@
         <v>3</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="18">
-        <f>#REF!</f>
-      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="16"/>
@@ -1553,11 +1563,8 @@
         <v>4</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="18">
-        <f>#REF!</f>
-      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="10"/>
     </row>
     <row r="6" ht="10.5" customHeight="1">
       <c r="A6" s="19"/>
@@ -1566,8 +1573,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" ht="21" customHeight="1">
       <c r="A7" t="s" s="21">
@@ -1588,26 +1594,42 @@
       <c r="F7" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="G7" t="s" s="22">
+      <c r="G7" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="18.5" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27">
         <f>IF(OR(ISBLANK(D8),ISBLANK(E8)),0,E8-D8)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="28">
         <f>F8*$F$3</f>
         <v>0</v>
       </c>
-      <c r="H8" s="28"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1615,5 +1637,8 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="90" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>